--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43411,6 +43411,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43446,6 +43446,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43483,6 +43483,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43520,6 +43520,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>244700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43555,6 +43555,41 @@
         <v>244700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1774200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43590,6 +43590,41 @@
         <v>1774200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1106100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43625,6 +43625,43 @@
         <v>1106100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43662,6 +43662,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1153600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43697,6 +43697,41 @@
         <v>1153600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>239700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43732,6 +43732,41 @@
         <v>239700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>375200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43767,6 +43767,41 @@
         <v>375200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>300900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43802,6 +43802,41 @@
         <v>300900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>92000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43837,6 +43837,76 @@
         <v>92000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>104500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43907,6 +43907,76 @@
         <v>104500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>159100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43977,6 +43977,41 @@
         <v>159100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>129100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44012,6 +44012,41 @@
         <v>129100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>28000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44047,6 +44047,41 @@
         <v>28000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>90800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44082,6 +44082,41 @@
         <v>90800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>607100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44117,6 +44117,76 @@
         <v>607100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>255200</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>54100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44187,6 +44187,41 @@
         <v>54100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44222,6 +44222,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>682100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2347"/>
+  <dimension ref="A1:I2348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82967,6 +82967,41 @@
         <v>682100</v>
       </c>
     </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E2348" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2348" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2348" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2348" t="n">
+        <v>301500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2348"/>
+  <dimension ref="A1:I2349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83002,6 +83002,41 @@
         <v>301500</v>
       </c>
     </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E2349" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2349" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2349" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2349" t="n">
+        <v>54000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2349"/>
+  <dimension ref="A1:I2350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83037,6 +83037,41 @@
         <v>54000</v>
       </c>
     </row>
+    <row r="2350">
+      <c r="A2350" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D2350" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E2350" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2350" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G2350" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2350" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2350" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2350"/>
+  <dimension ref="A1:I2351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83072,6 +83072,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="2351">
+      <c r="A2351" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D2351" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E2351" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G2351" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2351" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2351" t="n">
+        <v>460100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2351"/>
+  <dimension ref="A1:I2352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83107,6 +83107,41 @@
         <v>460100</v>
       </c>
     </row>
+    <row r="2352">
+      <c r="A2352" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E2352" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2352" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2352" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2352" t="n">
+        <v>190000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2352"/>
+  <dimension ref="A1:I2353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83142,6 +83142,41 @@
         <v>190000</v>
       </c>
     </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E2353" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2353" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2353" t="n">
+        <v>633600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2353"/>
+  <dimension ref="A1:I2354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83177,6 +83177,41 @@
         <v>633600</v>
       </c>
     </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E2354" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2354" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2354" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2354" t="n">
+        <v>92200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2354"/>
+  <dimension ref="A1:I2355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83212,6 +83212,41 @@
         <v>92200</v>
       </c>
     </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E2355" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2355" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2355" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2355" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2355"/>
+  <dimension ref="A1:I2356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83247,6 +83247,41 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="2356">
+      <c r="A2356" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E2356" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2356" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2356" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2356" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2356" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2356"/>
+  <dimension ref="A1:I2357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83282,6 +83282,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2357">
+      <c r="A2357" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E2357" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2357" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2357" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2357" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2357" t="n">
+        <v>219500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2357"/>
+  <dimension ref="A1:I2358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83317,6 +83317,41 @@
         <v>219500</v>
       </c>
     </row>
+    <row r="2358">
+      <c r="A2358" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E2358" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2358" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2358" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2358" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2358" t="n">
+        <v>11500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2358"/>
+  <dimension ref="A1:I2359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83352,6 +83352,41 @@
         <v>11500</v>
       </c>
     </row>
+    <row r="2359">
+      <c r="A2359" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E2359" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2359" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2359" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2359" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2359" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2359"/>
+  <dimension ref="A1:I2360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83387,6 +83387,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="2360">
+      <c r="A2360" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E2360" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2360" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2360" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2360" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2360" t="n">
+        <v>230000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2360"/>
+  <dimension ref="A1:I2361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83422,6 +83422,43 @@
         <v>230000</v>
       </c>
     </row>
+    <row r="2361">
+      <c r="A2361" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E2361" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2361" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G2361" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2361" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2361" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0048.xlsx
+++ b/data/0048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2361"/>
+  <dimension ref="A1:I2362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83459,6 +83459,41 @@
         </is>
       </c>
     </row>
+    <row r="2362">
+      <c r="A2362" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>0048</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>ANCOMLB</t>
+        </is>
+      </c>
+      <c r="E2362" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2362" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2362" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2362" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2362" t="n">
+        <v>23100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
